--- a/ML_Nanodegree/Capstone2/LCDataDictionary.xlsx
+++ b/ML_Nanodegree/Capstone2/LCDataDictionary.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timlatham/Documents/Programming/Udacity/ML Nanodegree/Capstone2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32540" windowHeight="18440"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
-    <sheet name="browseNotes" sheetId="6" r:id="rId2"/>
-    <sheet name="RejectStats" sheetId="7" r:id="rId3"/>
+    <sheet name="Data Summary" sheetId="8" r:id="rId2"/>
+    <sheet name="Results" sheetId="9" r:id="rId3"/>
+    <sheet name="browseNotes" sheetId="6" r:id="rId4"/>
+    <sheet name="RejectStats" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">browseNotes!$A$1:$B$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$F$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">LoanStats!$2:$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RejectStats!$A$1:$B$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">LoanStats!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -1019,13 +1029,174 @@
   </si>
   <si>
     <t>If blank, none in history, set these items to = 180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> funded_amnt   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> term          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> installment   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> emp_length    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> annual_inc   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dti           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delinq_2yrs   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inq_last_6mths </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mths_since_last_delinq </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mths_since_last_record </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open_acc      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pub_rec       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> revol_util    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collections_12_mths_ex_med </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mths_since_last_major_derog </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> count </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mean  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> std   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max   </t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Summary of features using .describe()</t>
+  </si>
+  <si>
+    <t>Train time</t>
+  </si>
+  <si>
+    <t>Prediction time</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>F1 Training</t>
+  </si>
+  <si>
+    <t>F1 Testing</t>
+  </si>
+  <si>
+    <t>GaussianNB</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>MLPClassifier</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier (learning_rate)</t>
+  </si>
+  <si>
+    <t>MLPClassifier (activation)</t>
+  </si>
+  <si>
+    <t>MLPClassifier (activation &amp; early stop)</t>
+  </si>
+  <si>
+    <t>Training - Testing</t>
+  </si>
+  <si>
+    <t>Green Pass/Red Fail</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Green Best/Red Worst</t>
+  </si>
+  <si>
+    <t>Green Best/Red Worst (model too)</t>
+  </si>
+  <si>
+    <t>Points Possible</t>
+  </si>
+  <si>
+    <t>Max Points</t>
+  </si>
+  <si>
+    <t>Min Points</t>
+  </si>
+  <si>
+    <t>Scoring the Models</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>&lt;.05</t>
+  </si>
+  <si>
+    <t>&gt;.2</t>
+  </si>
+  <si>
+    <t>&gt;.90</t>
+  </si>
+  <si>
+    <t>&lt;.90</t>
+  </si>
+  <si>
+    <t>&lt;.025</t>
+  </si>
+  <si>
+    <t>&gt;.025</t>
+  </si>
+  <si>
+    <t>Total Points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,8 +1370,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,6 +1604,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1537,7 +1755,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1626,8 +1844,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1655,68 +1874,97 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" xfId="88" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="89">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1744,6 +1992,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="88" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
@@ -1806,7 +2055,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1814,6 +2063,156 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1848,6 +2247,1284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Ranking</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoostClassifier (learning_rate)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLPClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MLPClassifier (activation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MLPClassifier (activation &amp; early stop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoostClassifier (learning_rate)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLPClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MLPClassifier (activation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MLPClassifier (activation &amp; early stop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Training</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoostClassifier (learning_rate)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLPClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MLPClassifier (activation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MLPClassifier (activation &amp; early stop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoostClassifier (learning_rate)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLPClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MLPClassifier (activation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MLPClassifier (activation &amp; early stop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training - Testing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Results!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AdaBoostClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoostClassifier (learning_rate)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MLPClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MLPClassifier (activation)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MLPClassifier (activation &amp; early stop)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$F$15:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-602690864"/>
+        <c:axId val="-684091264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-602690864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-684091264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-684091264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-602690864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,12 +3570,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1928,12 +3605,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2144,1618 +3821,1618 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="23"/>
-    <col min="8" max="8" width="25" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="23"/>
+    <col min="1" max="1" width="30.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="46" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="32"/>
+    <col min="8" max="8" width="25" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="31" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>301</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>301</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="38" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>301</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="37" t="s">
         <v>299</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="37" t="s">
         <v>299</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:10" s="39" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F13" s="31" t="s">
+      <c r="E13" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="37" t="s">
         <v>299</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="34" t="s">
         <v>299</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="37" t="s">
         <v>299</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="31" t="s">
+      <c r="E19" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="34" t="s">
         <v>299</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F21" s="31" t="s">
+      <c r="C21" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="38" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="31" t="s">
+      <c r="C22" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="38" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F23" s="31" t="s">
+      <c r="C23" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="32" t="s">
+      <c r="C24" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F25" s="32" t="s">
+      <c r="C25" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="32" t="s">
+      <c r="C26" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F27" s="31" t="s">
+      <c r="C27" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F28" s="32" t="s">
+      <c r="C28" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" spans="1:10" ht="56" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F29" s="32" t="s">
+      <c r="C29" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" s="32" t="s">
+      <c r="C30" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F31" s="32" t="s">
+      <c r="C31" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="C32" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F32" s="32" t="s">
+      <c r="C32" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A33" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F33" s="32" t="s">
+      <c r="C33" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F34" s="31" t="s">
+      <c r="C34" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="38" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F35" s="31" t="s">
+      <c r="C35" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="38" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" s="31" t="s">
+      <c r="C36" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A37" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F37" s="31" t="s">
+      <c r="C37" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" s="38" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38" s="31" t="s">
+      <c r="C38" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="31" t="s">
+      <c r="C39" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F40" s="31" t="s">
+      <c r="C40" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F40" s="38" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" s="31" t="s">
+      <c r="C41" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="38" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A42" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" s="32" t="s">
+      <c r="C42" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C43" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" s="32" t="s">
+      <c r="C43" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" s="32" t="s">
+      <c r="C44" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="C45" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" s="40"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="C46" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="40"/>
+    </row>
+    <row r="47" spans="1:6" ht="42" x14ac:dyDescent="0.2">
+      <c r="A47" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="C47" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F48" s="31" t="s">
+      <c r="C48" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="C49" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F50" s="31" t="s">
+      <c r="C50" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F50" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="C51" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" s="32" t="s">
+      <c r="C52" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53" s="31" t="s">
+      <c r="C53" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F53" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F54" s="31" t="s">
+      <c r="C54" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F55" s="31" t="s">
+      <c r="C55" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F56" s="31" t="s">
+      <c r="C56" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F57" s="31" t="s">
+      <c r="C57" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F57" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" s="31"/>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
+      <c r="C58" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F59" s="31"/>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
+      <c r="C59" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F60" s="31" t="s">
+      <c r="C60" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="38" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F61" s="32"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
+      <c r="C61" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F62" s="32"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-    </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="C62" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+    </row>
+    <row r="63" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F63" s="31" t="s">
+      <c r="C63" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+    </row>
+    <row r="64" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A64" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64" s="31" t="s">
+      <c r="C64" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" s="38" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
+      <c r="C65" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F66" s="31" t="s">
+      <c r="C66" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" s="38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F67" s="31" t="s">
+      <c r="C67" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F67" s="38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+    <row r="68" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F68" s="31" t="s">
+      <c r="C68" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F68" s="38" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F69" s="31" t="s">
+      <c r="C69" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F69" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F70" s="31" t="s">
+      <c r="C70" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F70" s="38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F71" s="31"/>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
+      <c r="C71" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A72" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F72" s="31"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+      <c r="C72" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F73" s="32"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+      <c r="C73" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="C74" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F74" s="40"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="32"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="C75" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" s="40"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="F76" s="31" t="s">
+      <c r="C76" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F76" s="38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F77" s="32"/>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="C77" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F77" s="40"/>
+    </row>
+    <row r="78" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A78" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="F78" s="32" t="s">
+      <c r="C78" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+    </row>
+    <row r="79" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A79" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="F79" s="31" t="s">
+      <c r="C79" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="F79" s="38" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
+    <row r="81" spans="2:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="B81" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="34"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="44"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F79"/>
@@ -3765,43 +5442,1108 @@
     <sortCondition descending="1" ref="D2:D82"/>
     <sortCondition ref="A2:A82"/>
   </sortState>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="C3:E79 C1:E1">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:E2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup scale="69" fitToHeight="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C4" s="28">
+        <v>13527.641416</v>
+      </c>
+      <c r="D4" s="28">
+        <v>8108.7557939999997</v>
+      </c>
+      <c r="E4" s="28">
+        <v>500</v>
+      </c>
+      <c r="F4" s="28">
+        <v>7200</v>
+      </c>
+      <c r="G4" s="28">
+        <v>12000</v>
+      </c>
+      <c r="H4" s="28">
+        <v>18125</v>
+      </c>
+      <c r="I4" s="28">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.22280900000000001</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.416132</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C6" s="28">
+        <v>418.24989499999998</v>
+      </c>
+      <c r="D6" s="28">
+        <v>244.90293</v>
+      </c>
+      <c r="E6" s="28">
+        <v>15.69</v>
+      </c>
+      <c r="F6" s="28">
+        <v>239.56</v>
+      </c>
+      <c r="G6" s="28">
+        <v>365.23</v>
+      </c>
+      <c r="H6" s="28">
+        <v>547.54999999999995</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1424.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5.5639729999999998</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3.7882440000000002</v>
+      </c>
+      <c r="E7" s="28">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28">
+        <v>6</v>
+      </c>
+      <c r="H7" s="28">
+        <v>10</v>
+      </c>
+      <c r="I7" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C8" s="28">
+        <v>72533.06</v>
+      </c>
+      <c r="D8" s="28">
+        <v>58792.480000000003</v>
+      </c>
+      <c r="E8" s="28">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="28">
+        <v>45000</v>
+      </c>
+      <c r="G8" s="28">
+        <v>62000</v>
+      </c>
+      <c r="H8" s="28">
+        <v>87000</v>
+      </c>
+      <c r="I8" s="28">
+        <v>8706582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C9" s="28">
+        <v>16.549334999999999</v>
+      </c>
+      <c r="D9" s="28">
+        <v>7.7867360000000003</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>10.76</v>
+      </c>
+      <c r="G9" s="28">
+        <v>16.2</v>
+      </c>
+      <c r="H9" s="28">
+        <v>22</v>
+      </c>
+      <c r="I9" s="28">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.24981100000000001</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.74053199999999997</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.85266600000000004</v>
+      </c>
+      <c r="D11" s="28">
+        <v>1.06697</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C12" s="28">
+        <v>115.824844</v>
+      </c>
+      <c r="D12" s="28">
+        <v>73.384033000000002</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>37</v>
+      </c>
+      <c r="G12" s="28">
+        <v>180</v>
+      </c>
+      <c r="H12" s="28">
+        <v>180</v>
+      </c>
+      <c r="I12" s="28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C13" s="28">
+        <v>166.99113</v>
+      </c>
+      <c r="D13" s="28">
+        <v>35.981014999999999</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>180</v>
+      </c>
+      <c r="G13" s="28">
+        <v>180</v>
+      </c>
+      <c r="H13" s="28">
+        <v>180</v>
+      </c>
+      <c r="I13" s="28">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C14" s="28">
+        <v>10.929966</v>
+      </c>
+      <c r="D14" s="28">
+        <v>4.8124200000000004</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>7</v>
+      </c>
+      <c r="G14" s="28">
+        <v>10</v>
+      </c>
+      <c r="H14" s="28">
+        <v>14</v>
+      </c>
+      <c r="I14" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.14344199999999999</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.43274699999999999</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C16" s="28">
+        <v>54.314660000000003</v>
+      </c>
+      <c r="D16" s="28">
+        <v>24.730281999999999</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G16" s="28">
+        <v>55.8</v>
+      </c>
+      <c r="H16" s="28">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="I16" s="28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C17" s="28">
+        <v>6.7359999999999998E-3</v>
+      </c>
+      <c r="D17" s="28">
+        <v>8.9071999999999998E-2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="27">
+        <v>252535</v>
+      </c>
+      <c r="C18" s="28">
+        <v>154.312119</v>
+      </c>
+      <c r="D18" s="28">
+        <v>54.194761999999997</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <v>180</v>
+      </c>
+      <c r="G18" s="28">
+        <v>180</v>
+      </c>
+      <c r="H18" s="28">
+        <v>180</v>
+      </c>
+      <c r="I18" s="28">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="47">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="C2" s="47">
+        <v>4.41E-2</v>
+      </c>
+      <c r="D2" s="47">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="E2" s="47">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F2" s="47">
+        <f>D2-E2</f>
+        <v>7.0000000000003393E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="47">
+        <v>9.2355</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="D3" s="47">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="E3" s="47">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="F3" s="47">
+        <f t="shared" ref="F3:F8" si="0">D3-E3</f>
+        <v>-6.0000000000004494E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="47">
+        <v>4.3734999999999999</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0.2354</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="F4" s="47">
+        <f t="shared" si="0"/>
+        <v>0.11059999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="47">
+        <v>9.1149000000000004</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0.2455</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="F5" s="47">
+        <f t="shared" si="0"/>
+        <v>-1.0999999999999899E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="47">
+        <v>30.492000000000001</v>
+      </c>
+      <c r="C6" s="47">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000679E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="47">
+        <v>3.9775999999999998</v>
+      </c>
+      <c r="C7" s="47">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="D7" s="47">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0.9022</v>
+      </c>
+      <c r="F7" s="47">
+        <f t="shared" si="0"/>
+        <v>-9.000000000000119E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="47">
+        <v>2.3121999999999998</v>
+      </c>
+      <c r="C8" s="47">
+        <v>3.73E-2</v>
+      </c>
+      <c r="D8" s="47">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E8" s="47">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="F8" s="47">
+        <f t="shared" si="0"/>
+        <v>-3.9999999999995595E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f>SUM(B15:F15)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G21" si="1">SUM(B16:F16)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B23" s="19">
+        <v>5</v>
+      </c>
+      <c r="C23" s="19">
+        <v>5</v>
+      </c>
+      <c r="D23" s="19">
+        <v>5</v>
+      </c>
+      <c r="E23" s="19">
+        <v>5</v>
+      </c>
+      <c r="F23" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+      <formula>0.025</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+      <formula>0.025</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:E8">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+      <formula>0.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:F21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="235.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="235.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>219</v>
       </c>
@@ -3809,7 +6551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>183</v>
       </c>
@@ -3820,7 +6562,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>191</v>
       </c>
@@ -3831,7 +6573,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>192</v>
       </c>
@@ -3842,7 +6584,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>190</v>
       </c>
@@ -3853,7 +6595,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>254</v>
       </c>
@@ -3861,7 +6603,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>180</v>
       </c>
@@ -3871,7 +6613,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>252</v>
       </c>
@@ -3880,7 +6622,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>114</v>
       </c>
@@ -3890,7 +6632,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>193</v>
       </c>
@@ -3901,7 +6643,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>195</v>
       </c>
@@ -3912,7 +6654,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
@@ -3922,7 +6664,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>106</v>
       </c>
@@ -3932,7 +6674,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>187</v>
       </c>
@@ -3943,7 +6685,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>196</v>
       </c>
@@ -3954,7 +6696,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>197</v>
       </c>
@@ -3965,7 +6707,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
@@ -3976,7 +6718,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -3987,7 +6729,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>255</v>
       </c>
@@ -3996,7 +6738,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>198</v>
       </c>
@@ -4007,7 +6749,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>239</v>
       </c>
@@ -4017,7 +6759,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>166</v>
       </c>
@@ -4028,7 +6770,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>177</v>
       </c>
@@ -4039,7 +6781,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>185</v>
       </c>
@@ -4050,7 +6792,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>173</v>
       </c>
@@ -4061,7 +6803,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>200</v>
       </c>
@@ -4072,7 +6814,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>199</v>
       </c>
@@ -4083,7 +6825,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>171</v>
       </c>
@@ -4094,7 +6836,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
@@ -4105,7 +6847,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>179</v>
       </c>
@@ -4116,7 +6858,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -4127,7 +6869,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>161</v>
       </c>
@@ -4137,7 +6879,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>216</v>
       </c>
@@ -4147,7 +6889,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>201</v>
       </c>
@@ -4158,7 +6900,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -4169,7 +6911,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>172</v>
       </c>
@@ -4180,7 +6922,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>182</v>
       </c>
@@ -4191,7 +6933,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>186</v>
       </c>
@@ -4202,7 +6944,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>170</v>
       </c>
@@ -4213,7 +6955,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>169</v>
       </c>
@@ -4224,7 +6966,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>124</v>
       </c>
@@ -4234,7 +6976,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
@@ -4244,7 +6986,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>111</v>
       </c>
@@ -4254,7 +6996,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>208</v>
       </c>
@@ -4264,7 +7006,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>160</v>
       </c>
@@ -4274,7 +7016,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>108</v>
       </c>
@@ -4285,7 +7027,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>101</v>
       </c>
@@ -4295,7 +7037,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>202</v>
       </c>
@@ -4305,7 +7047,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>203</v>
       </c>
@@ -4315,7 +7057,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>204</v>
       </c>
@@ -4325,7 +7067,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>207</v>
       </c>
@@ -4335,7 +7077,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>205</v>
       </c>
@@ -4345,7 +7087,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>206</v>
       </c>
@@ -4354,7 +7096,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>104</v>
       </c>
@@ -4363,7 +7105,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>116</v>
       </c>
@@ -4372,7 +7114,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
@@ -4381,7 +7123,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>117</v>
       </c>
@@ -4390,7 +7132,7 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>115</v>
       </c>
@@ -4399,7 +7141,7 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>122</v>
       </c>
@@ -4408,7 +7150,7 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>127</v>
       </c>
@@ -4417,7 +7159,7 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>102</v>
       </c>
@@ -4426,7 +7168,7 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>126</v>
       </c>
@@ -4435,7 +7177,7 @@
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>109</v>
       </c>
@@ -4444,7 +7186,7 @@
       </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>121</v>
       </c>
@@ -4453,7 +7195,7 @@
       </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>120</v>
       </c>
@@ -4462,7 +7204,7 @@
       </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>119</v>
       </c>
@@ -4471,7 +7213,7 @@
       </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>110</v>
       </c>
@@ -4480,7 +7222,7 @@
       </c>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>209</v>
       </c>
@@ -4489,7 +7231,7 @@
       </c>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>118</v>
       </c>
@@ -4498,7 +7240,7 @@
       </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>194</v>
       </c>
@@ -4508,7 +7250,7 @@
       <c r="D70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>103</v>
       </c>
@@ -4517,7 +7259,7 @@
       </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>210</v>
       </c>
@@ -4526,7 +7268,7 @@
       </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>18</v>
       </c>
@@ -4536,7 +7278,7 @@
       <c r="D73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>189</v>
       </c>
@@ -4546,7 +7288,7 @@
       <c r="D74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>188</v>
       </c>
@@ -4556,7 +7298,7 @@
       <c r="D75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>212</v>
       </c>
@@ -4565,7 +7307,7 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>213</v>
       </c>
@@ -4574,7 +7316,7 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>174</v>
       </c>
@@ -4584,7 +7326,7 @@
       <c r="D78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>176</v>
       </c>
@@ -4594,7 +7336,7 @@
       <c r="D79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>107</v>
       </c>
@@ -4603,7 +7345,7 @@
       </c>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>5</v>
       </c>
@@ -4613,7 +7355,7 @@
       <c r="D81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>19</v>
       </c>
@@ -4623,7 +7365,7 @@
       <c r="D82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>128</v>
       </c>
@@ -4632,7 +7374,7 @@
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>113</v>
       </c>
@@ -4641,7 +7383,7 @@
       </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>112</v>
       </c>
@@ -4650,7 +7392,7 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>100</v>
       </c>
@@ -4659,7 +7401,7 @@
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>217</v>
       </c>
@@ -4668,7 +7410,7 @@
       </c>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>215</v>
       </c>
@@ -4677,7 +7419,7 @@
       </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>211</v>
       </c>
@@ -4686,7 +7428,7 @@
       </c>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>214</v>
       </c>
@@ -4695,7 +7437,7 @@
       </c>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>16</v>
       </c>
@@ -4705,7 +7447,7 @@
       <c r="D91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>257</v>
       </c>
@@ -4714,7 +7456,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
         <v>247</v>
       </c>
@@ -4724,7 +7466,7 @@
       <c r="D93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>266</v>
       </c>
@@ -4732,7 +7474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>268</v>
       </c>
@@ -4740,7 +7482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>270</v>
       </c>
@@ -4748,7 +7490,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>272</v>
       </c>
@@ -4756,7 +7498,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>274</v>
       </c>
@@ -4764,7 +7506,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>276</v>
       </c>
@@ -4772,7 +7514,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>278</v>
       </c>
@@ -4780,7 +7522,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>280</v>
       </c>
@@ -4788,7 +7530,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>282</v>
       </c>
@@ -4796,7 +7538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>284</v>
       </c>
@@ -4804,7 +7546,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>286</v>
       </c>
@@ -4812,7 +7554,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>288</v>
       </c>
@@ -4820,7 +7562,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>294</v>
       </c>
@@ -4828,7 +7570,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>290</v>
       </c>
@@ -4836,7 +7578,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>168</v>
       </c>
@@ -4852,15 +7594,10 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -4868,13 +7605,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="225.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="225.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>227</v>
       </c>
@@ -4882,7 +7619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>228</v>
       </c>
@@ -4890,7 +7627,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>229</v>
       </c>
@@ -4898,7 +7635,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>230</v>
       </c>
@@ -4906,7 +7643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>243</v>
       </c>
@@ -4914,7 +7651,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>231</v>
       </c>
@@ -4922,7 +7659,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>245</v>
       </c>
@@ -4930,7 +7667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>232</v>
       </c>
@@ -4938,7 +7675,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>233</v>
       </c>
@@ -4946,7 +7683,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>234</v>
       </c>
@@ -4954,11 +7691,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
     </row>
@@ -4966,10 +7703,5 @@
   <autoFilter ref="A1:B10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>